--- a/src/assets/csv_templates/VERIFI-Import-Data.xlsx
+++ b/src/assets/csv_templates/VERIFI-Import-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroot\OneDrive - Intertech\Documents\ORNL\VERIFI\src\assets\csv_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Dropbox (ORNL)\Armstrong Work\DOE VERIFI\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E37D5DE-0784-44B3-AD3E-22582A43BE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4518DF2D-B764-4FB6-AA3E-9C6BFC0DB1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="8" r:id="rId1"/>
@@ -56,12 +56,12 @@
     <definedName name="Names_Meters">'Meters-Utilities'!$B$2:$B$201</definedName>
     <definedName name="NaturalGasFuel">HIDE!$F$18</definedName>
     <definedName name="NaturalGasSLG">HIDE!$D$12</definedName>
-    <definedName name="NaturalGasunits">HIDE!$B$52:$B$65</definedName>
+    <definedName name="NaturalGasunits">HIDE!$B$52:$B$66</definedName>
     <definedName name="OtherEnergyFuel">HIDE!$D$18:$D$22</definedName>
     <definedName name="OtherEnergySLG">HIDE!$B$12</definedName>
     <definedName name="OtherEnergyunits">HIDE!$F$52:$F$66</definedName>
     <definedName name="OtherFuelsGasFuel">HIDE!$A$18:$A$25</definedName>
-    <definedName name="OtherFuelsGasunits">HIDE!$C$52:$C$65</definedName>
+    <definedName name="OtherFuelsGasunits">HIDE!$C$52:$C$66</definedName>
     <definedName name="OtherFuelsLiquidFuel">HIDE!$B$18:$B$48</definedName>
     <definedName name="OtherFuelsLiquidunits">HIDE!$D$52:$D$64</definedName>
     <definedName name="OtherFuelsSLG">HIDE!$A$12:$A$14</definedName>
@@ -75,10 +75,10 @@
     <definedName name="States">HIDE!$O$2:$O$61</definedName>
     <definedName name="WasteWaterFuel">HIDE!$H$18</definedName>
     <definedName name="WasteWaterSLG">HIDE!$F$12</definedName>
-    <definedName name="WasteWaterunits">HIDE!$H$52:$H$55</definedName>
+    <definedName name="WasteWaterunits">HIDE!$H$52:$H$56</definedName>
     <definedName name="WaterFuel">HIDE!$G$18</definedName>
     <definedName name="WaterSLG">HIDE!$E$12</definedName>
-    <definedName name="Waterunits">HIDE!$G$52:$G$55</definedName>
+    <definedName name="Waterunits">HIDE!$G$52:$G$56</definedName>
     <definedName name="YesNo">HIDE!$B$77:$B$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="640">
   <si>
     <t>Meter Number</t>
   </si>
@@ -2010,6 +2010,12 @@
   </si>
   <si>
     <t>Lao People"s Democratic Republic (the)</t>
+  </si>
+  <si>
+    <t>kgal</t>
+  </si>
+  <si>
+    <t>MCM</t>
   </si>
 </sst>
 </file>
@@ -2529,7 +2535,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -2562,6 +2568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2913,7 +2920,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> is used as a unique identifier for each data stream, it can be your actual meter number or a self assigned number to keep all your energy uses separate.</a:t>
+            <a:t> is used as a unique identifier for each data stream, it can be your actual meter number or a self assigned number to keep all your energy uses separate. THIS IS REQUIRED.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3384,7 +3391,7 @@
   <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,7 +3450,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="6"/>
@@ -3456,7 +3463,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="6"/>
@@ -3469,7 +3476,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="6"/>
@@ -3482,7 +3489,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="6"/>
@@ -3495,7 +3502,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="6"/>
@@ -3508,7 +3515,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="6"/>
@@ -3521,7 +3528,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="6"/>
@@ -3534,7 +3541,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="6"/>
@@ -3547,7 +3554,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="6"/>
@@ -3560,7 +3567,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="6"/>
@@ -3573,7 +3580,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="6"/>
@@ -3586,7 +3593,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="6"/>
@@ -3599,7 +3606,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="6"/>
@@ -3612,7 +3619,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="6"/>
@@ -3625,7 +3632,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="6"/>
@@ -3638,7 +3645,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="6"/>
@@ -3651,7 +3658,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="6"/>
@@ -3664,7 +3671,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="6"/>
@@ -3677,7 +3684,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="6"/>
@@ -3690,7 +3697,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="6"/>
@@ -3703,7 +3710,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="6"/>
@@ -3716,7 +3723,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="6"/>
@@ -3729,7 +3736,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="6"/>
@@ -3742,7 +3749,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="6"/>
@@ -3755,7 +3762,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="6"/>
@@ -3768,7 +3775,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="6"/>
@@ -3781,7 +3788,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="6"/>
@@ -3794,7 +3801,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="6"/>
@@ -3807,7 +3814,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="6"/>
@@ -3820,7 +3827,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="6"/>
@@ -3833,7 +3840,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="6"/>
@@ -3846,7 +3853,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="6"/>
@@ -3859,7 +3866,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="6"/>
@@ -3872,7 +3879,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="6"/>
@@ -3885,7 +3892,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="6"/>
@@ -3898,7 +3905,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="6"/>
@@ -3911,7 +3918,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="6"/>
@@ -3924,7 +3931,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="6"/>
@@ -3937,7 +3944,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="6"/>
@@ -3950,7 +3957,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="6"/>
@@ -3963,7 +3970,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="6"/>
@@ -3976,7 +3983,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="6"/>
@@ -3989,7 +3996,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="6"/>
@@ -4002,7 +4009,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="6"/>
@@ -4015,7 +4022,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="6"/>
@@ -4028,7 +4035,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="6"/>
@@ -4041,7 +4048,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="6"/>
@@ -4054,7 +4061,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="6"/>
@@ -4067,7 +4074,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="6"/>
@@ -4080,7 +4087,7 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="6"/>
@@ -4093,7 +4100,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="6"/>
@@ -4106,7 +4113,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="6"/>
@@ -4119,7 +4126,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="6"/>
@@ -4132,7 +4139,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="F55" s="14"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="6"/>
@@ -4145,7 +4152,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="6"/>
@@ -4158,7 +4165,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="6"/>
@@ -4171,7 +4178,7 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="6"/>
@@ -4184,7 +4191,7 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="6"/>
@@ -4197,7 +4204,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="6"/>
@@ -4210,7 +4217,7 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="F61" s="14"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="6"/>
@@ -4223,7 +4230,7 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="F62" s="14"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="6"/>
@@ -4236,7 +4243,7 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
+      <c r="F63" s="14"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="6"/>
@@ -4249,7 +4256,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+      <c r="F64" s="14"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="6"/>
@@ -4262,7 +4269,7 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
+      <c r="F65" s="14"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="6"/>
@@ -4275,7 +4282,7 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="6"/>
@@ -4288,7 +4295,7 @@
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="14"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="6"/>
@@ -4301,7 +4308,7 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="6"/>
@@ -4314,7 +4321,7 @@
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="6"/>
@@ -4327,7 +4334,7 @@
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
+      <c r="F70" s="14"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="6"/>
@@ -4340,7 +4347,7 @@
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="6"/>
@@ -4353,7 +4360,7 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
+      <c r="F72" s="14"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="6"/>
@@ -4366,7 +4373,7 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="F73" s="14"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="6"/>
@@ -4379,7 +4386,7 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
+      <c r="F74" s="14"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="6"/>
@@ -4392,7 +4399,7 @@
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="F75" s="14"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="6"/>
@@ -4405,7 +4412,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
+      <c r="F76" s="14"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="6"/>
@@ -4418,7 +4425,7 @@
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
+      <c r="F77" s="14"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="6"/>
@@ -4431,7 +4438,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
+      <c r="F78" s="14"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="6"/>
@@ -4444,7 +4451,7 @@
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="F79" s="14"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="6"/>
@@ -4457,7 +4464,7 @@
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+      <c r="F80" s="14"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="6"/>
@@ -4470,7 +4477,7 @@
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="F81" s="14"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="6"/>
@@ -4483,7 +4490,7 @@
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
+      <c r="F82" s="14"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="6"/>
@@ -4496,7 +4503,7 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
+      <c r="F83" s="14"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="6"/>
@@ -4509,7 +4516,7 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="6"/>
@@ -4522,7 +4529,7 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
+      <c r="F85" s="14"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="6"/>
@@ -4535,7 +4542,7 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
+      <c r="F86" s="14"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="6"/>
@@ -4548,7 +4555,7 @@
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="14"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="6"/>
@@ -4561,7 +4568,7 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
+      <c r="F88" s="14"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="6"/>
@@ -4574,7 +4581,7 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
+      <c r="F89" s="14"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="6"/>
@@ -4587,7 +4594,7 @@
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="6"/>
@@ -4600,7 +4607,7 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+      <c r="F91" s="14"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="6"/>
@@ -4613,7 +4620,7 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
+      <c r="F92" s="14"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="6"/>
@@ -4626,7 +4633,7 @@
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
+      <c r="F93" s="14"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="6"/>
@@ -4639,7 +4646,7 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
+      <c r="F94" s="14"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="6"/>
@@ -4652,7 +4659,7 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
+      <c r="F95" s="14"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="6"/>
@@ -4665,7 +4672,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
+      <c r="F96" s="14"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="6"/>
@@ -4678,7 +4685,7 @@
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
+      <c r="F97" s="14"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="6"/>
@@ -4691,7 +4698,7 @@
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
+      <c r="F98" s="14"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="6"/>
@@ -4704,7 +4711,7 @@
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
+      <c r="F99" s="14"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="6"/>
@@ -4717,7 +4724,7 @@
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
+      <c r="F100" s="14"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="6"/>
@@ -4730,7 +4737,7 @@
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
+      <c r="F101" s="14"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="6"/>
@@ -4743,7 +4750,7 @@
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
+      <c r="F102" s="14"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="6"/>
@@ -4756,7 +4763,7 @@
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
+      <c r="F103" s="14"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="6"/>
@@ -4769,7 +4776,7 @@
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
+      <c r="F104" s="14"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="6"/>
@@ -4782,7 +4789,7 @@
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
+      <c r="F105" s="14"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="6"/>
@@ -4795,7 +4802,7 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
+      <c r="F106" s="14"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="6"/>
@@ -4808,7 +4815,7 @@
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
+      <c r="F107" s="14"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="6"/>
@@ -4821,7 +4828,7 @@
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
+      <c r="F108" s="14"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="6"/>
@@ -4834,7 +4841,7 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
+      <c r="F109" s="14"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="6"/>
@@ -4847,7 +4854,7 @@
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
+      <c r="F110" s="14"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="6"/>
@@ -4860,7 +4867,7 @@
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
+      <c r="F111" s="14"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="6"/>
@@ -4873,7 +4880,7 @@
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
+      <c r="F112" s="14"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="6"/>
@@ -4886,7 +4893,7 @@
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
+      <c r="F113" s="14"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="6"/>
@@ -4899,7 +4906,7 @@
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
+      <c r="F114" s="14"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="6"/>
@@ -4912,7 +4919,7 @@
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
+      <c r="F115" s="14"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="6"/>
@@ -4925,7 +4932,7 @@
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
+      <c r="F116" s="14"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="6"/>
@@ -4938,7 +4945,7 @@
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
+      <c r="F117" s="14"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="6"/>
@@ -4951,7 +4958,7 @@
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
+      <c r="F118" s="14"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="6"/>
@@ -4964,7 +4971,7 @@
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
+      <c r="F119" s="14"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="6"/>
@@ -4977,7 +4984,7 @@
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
+      <c r="F120" s="14"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="6"/>
@@ -4990,7 +4997,7 @@
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
+      <c r="F121" s="14"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="6"/>
@@ -5003,7 +5010,7 @@
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
+      <c r="F122" s="14"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="6"/>
@@ -5016,7 +5023,7 @@
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
+      <c r="F123" s="14"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="6"/>
@@ -5029,7 +5036,7 @@
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
+      <c r="F124" s="14"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="6"/>
@@ -5042,7 +5049,7 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
+      <c r="F125" s="14"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="6"/>
@@ -5055,7 +5062,7 @@
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
+      <c r="F126" s="14"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="6"/>
@@ -5068,7 +5075,7 @@
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
+      <c r="F127" s="14"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="6"/>
@@ -5081,7 +5088,7 @@
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
+      <c r="F128" s="14"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="6"/>
@@ -5094,7 +5101,7 @@
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
+      <c r="F129" s="14"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="6"/>
@@ -5107,7 +5114,7 @@
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
+      <c r="F130" s="14"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="6"/>
@@ -5120,7 +5127,7 @@
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
+      <c r="F131" s="14"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="6"/>
@@ -5133,7 +5140,7 @@
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
+      <c r="F132" s="14"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="6"/>
@@ -5146,7 +5153,7 @@
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
+      <c r="F133" s="14"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="6"/>
@@ -5159,7 +5166,7 @@
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
+      <c r="F134" s="14"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="6"/>
@@ -5172,7 +5179,7 @@
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
+      <c r="F135" s="14"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="6"/>
@@ -5185,7 +5192,7 @@
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
+      <c r="F136" s="14"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="6"/>
@@ -5198,7 +5205,7 @@
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
+      <c r="F137" s="14"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="6"/>
@@ -5211,7 +5218,7 @@
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
+      <c r="F138" s="14"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="6"/>
@@ -5224,7 +5231,7 @@
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
+      <c r="F139" s="14"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="6"/>
@@ -5237,7 +5244,7 @@
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
+      <c r="F140" s="14"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="6"/>
@@ -5250,7 +5257,7 @@
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
+      <c r="F141" s="14"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="6"/>
@@ -5263,7 +5270,7 @@
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
+      <c r="F142" s="14"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="6"/>
@@ -5276,7 +5283,7 @@
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
+      <c r="F143" s="14"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="6"/>
@@ -5289,7 +5296,7 @@
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
+      <c r="F144" s="14"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="6"/>
@@ -5302,7 +5309,7 @@
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
+      <c r="F145" s="14"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="6"/>
@@ -5315,7 +5322,7 @@
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
+      <c r="F146" s="14"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="6"/>
@@ -5328,7 +5335,7 @@
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
+      <c r="F147" s="14"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="6"/>
@@ -5341,7 +5348,7 @@
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
+      <c r="F148" s="14"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="6"/>
@@ -5354,7 +5361,7 @@
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
+      <c r="F149" s="14"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="6"/>
@@ -5367,7 +5374,7 @@
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
+      <c r="F150" s="14"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="6"/>
@@ -5380,7 +5387,7 @@
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
+      <c r="F151" s="14"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="6"/>
@@ -5393,7 +5400,7 @@
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
+      <c r="F152" s="14"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="6"/>
@@ -5406,7 +5413,7 @@
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
+      <c r="F153" s="14"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="6"/>
@@ -5419,7 +5426,7 @@
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
+      <c r="F154" s="14"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="6"/>
@@ -5432,7 +5439,7 @@
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
+      <c r="F155" s="14"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="6"/>
@@ -5445,7 +5452,7 @@
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
+      <c r="F156" s="14"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="6"/>
@@ -5458,7 +5465,7 @@
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
+      <c r="F157" s="14"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="6"/>
@@ -5471,7 +5478,7 @@
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
+      <c r="F158" s="14"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="6"/>
@@ -5484,7 +5491,7 @@
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
+      <c r="F159" s="14"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="6"/>
@@ -5497,7 +5504,7 @@
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
+      <c r="F160" s="14"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="6"/>
@@ -5510,7 +5517,7 @@
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
+      <c r="F161" s="14"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="6"/>
@@ -5523,7 +5530,7 @@
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
+      <c r="F162" s="14"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="6"/>
@@ -5536,7 +5543,7 @@
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
+      <c r="F163" s="14"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="6"/>
@@ -5549,7 +5556,7 @@
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
+      <c r="F164" s="14"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="6"/>
@@ -5562,7 +5569,7 @@
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
+      <c r="F165" s="14"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="6"/>
@@ -5575,7 +5582,7 @@
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
+      <c r="F166" s="14"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="6"/>
@@ -5588,7 +5595,7 @@
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
+      <c r="F167" s="14"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="6"/>
@@ -5601,7 +5608,7 @@
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
+      <c r="F168" s="14"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="6"/>
@@ -5614,7 +5621,7 @@
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
+      <c r="F169" s="14"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="6"/>
@@ -5627,7 +5634,7 @@
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
+      <c r="F170" s="14"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="6"/>
@@ -5640,7 +5647,7 @@
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
+      <c r="F171" s="14"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="6"/>
@@ -5653,7 +5660,7 @@
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
+      <c r="F172" s="14"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="6"/>
@@ -5666,7 +5673,7 @@
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
+      <c r="F173" s="14"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="6"/>
@@ -5679,7 +5686,7 @@
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
+      <c r="F174" s="14"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="6"/>
@@ -5692,7 +5699,7 @@
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
+      <c r="F175" s="14"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="6"/>
@@ -5705,7 +5712,7 @@
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
+      <c r="F176" s="14"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="6"/>
@@ -5718,7 +5725,7 @@
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
+      <c r="F177" s="14"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="6"/>
@@ -5731,7 +5738,7 @@
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
+      <c r="F178" s="14"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="6"/>
@@ -5744,7 +5751,7 @@
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
+      <c r="F179" s="14"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="6"/>
@@ -5757,7 +5764,7 @@
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
+      <c r="F180" s="14"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="6"/>
@@ -5770,7 +5777,7 @@
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
+      <c r="F181" s="14"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="6"/>
@@ -5783,7 +5790,7 @@
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="6"/>
-      <c r="F182" s="6"/>
+      <c r="F182" s="14"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="6"/>
@@ -5796,7 +5803,7 @@
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="6"/>
-      <c r="F183" s="6"/>
+      <c r="F183" s="14"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="6"/>
@@ -5809,7 +5816,7 @@
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
+      <c r="F184" s="14"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="6"/>
@@ -5822,7 +5829,7 @@
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
+      <c r="F185" s="14"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="6"/>
@@ -5835,7 +5842,7 @@
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
+      <c r="F186" s="14"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="6"/>
@@ -5848,7 +5855,7 @@
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
+      <c r="F187" s="14"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="6"/>
@@ -5861,7 +5868,7 @@
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
+      <c r="F188" s="14"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="6"/>
@@ -5874,7 +5881,7 @@
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
+      <c r="F189" s="14"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="6"/>
@@ -5887,7 +5894,7 @@
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
+      <c r="F190" s="14"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="6"/>
@@ -5900,7 +5907,7 @@
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
+      <c r="F191" s="14"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="6"/>
@@ -5913,7 +5920,7 @@
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
+      <c r="F192" s="14"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="6"/>
@@ -5926,7 +5933,7 @@
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
+      <c r="F193" s="14"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="6"/>
@@ -5939,7 +5946,7 @@
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="6"/>
-      <c r="F194" s="6"/>
+      <c r="F194" s="14"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="6"/>
@@ -5952,7 +5959,7 @@
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
+      <c r="F195" s="14"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="6"/>
@@ -5965,7 +5972,7 @@
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
+      <c r="F196" s="14"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="6"/>
@@ -5978,7 +5985,7 @@
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="6"/>
-      <c r="F197" s="6"/>
+      <c r="F197" s="14"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="I197" s="6"/>
@@ -5991,7 +5998,7 @@
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
+      <c r="F198" s="14"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="6"/>
@@ -6004,7 +6011,7 @@
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="6"/>
-      <c r="F199" s="6"/>
+      <c r="F199" s="14"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="6"/>
@@ -6017,7 +6024,7 @@
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="6"/>
-      <c r="F200" s="6"/>
+      <c r="F200" s="14"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="I200" s="6"/>
@@ -6055,7 +6062,7 @@
   <dimension ref="A1:S201"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10408,7 +10415,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10790,8 +10797,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11723,10 +11730,10 @@
         <v>131</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>638</v>
       </c>
       <c r="H54" t="s">
-        <v>41</v>
+        <v>638</v>
       </c>
       <c r="I54" t="s">
         <v>41</v>
@@ -11758,10 +11765,10 @@
         <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I55" t="s">
         <v>45</v>
@@ -11792,6 +11799,12 @@
       <c r="F56" t="s">
         <v>46</v>
       </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>45</v>
+      </c>
       <c r="M56" t="s">
         <v>212</v>
       </c>
@@ -11948,10 +11961,10 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="D63" t="s">
         <v>41</v>
@@ -11968,10 +11981,10 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
         <v>45</v>
@@ -11988,10 +12001,10 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
         <v>128</v>
@@ -12001,6 +12014,12 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
       <c r="F66" t="s">
         <v>129</v>
       </c>
